--- a/BackTest/2019-10-26 BackTest GTO.xlsx
+++ b/BackTest/2019-10-26 BackTest GTO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>126549.4737</v>
       </c>
       <c r="G2" t="n">
-        <v>332000.677</v>
+        <v>15.02</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>6480</v>
       </c>
       <c r="G3" t="n">
-        <v>325520.677</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>5552.6227</v>
       </c>
       <c r="G4" t="n">
-        <v>325520.677</v>
+        <v>15.08</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>3025.269</v>
       </c>
       <c r="G5" t="n">
-        <v>325520.677</v>
+        <v>15.04</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>4000</v>
       </c>
       <c r="G6" t="n">
-        <v>329520.677</v>
+        <v>15.08</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>4720</v>
       </c>
       <c r="G7" t="n">
-        <v>324800.677</v>
+        <v>15.06</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>25766.7823</v>
       </c>
       <c r="G8" t="n">
-        <v>299033.8947</v>
+        <v>15.06</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>69641.8533</v>
       </c>
       <c r="G9" t="n">
-        <v>229392.0414</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>31114.6545</v>
       </c>
       <c r="G10" t="n">
-        <v>229392.0414</v>
+        <v>14.94</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>80751.89230000001</v>
       </c>
       <c r="G11" t="n">
-        <v>310143.9337</v>
+        <v>14.96</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>310124.9337</v>
+        <v>14.86</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>110</v>
       </c>
       <c r="G13" t="n">
-        <v>310124.9337</v>
+        <v>14.78</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>13469.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>323594.9336</v>
+        <v>14.83999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>323594.9336</v>
+        <v>14.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>12296.5115</v>
       </c>
       <c r="G16" t="n">
-        <v>311298.4221</v>
+        <v>14.82</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>6062.9972</v>
       </c>
       <c r="G17" t="n">
-        <v>305235.4249</v>
+        <v>14.86</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>305235.4249</v>
+        <v>14.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>90</v>
       </c>
       <c r="G19" t="n">
-        <v>305325.4249</v>
+        <v>14.88</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>13381.03311257</v>
       </c>
       <c r="G20" t="n">
-        <v>318706.45801257</v>
+        <v>14.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>2807.012</v>
       </c>
       <c r="G21" t="n">
-        <v>315899.44601257</v>
+        <v>14.92</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>997.5</v>
       </c>
       <c r="G22" t="n">
-        <v>315899.44601257</v>
+        <v>14.96</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>315878.44601257</v>
+        <v>14.98</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>88</v>
       </c>
       <c r="G24" t="n">
-        <v>315878.44601257</v>
+        <v>14.98</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>57255</v>
       </c>
       <c r="G25" t="n">
-        <v>373133.44601257</v>
+        <v>15.02</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>156996.4992</v>
       </c>
       <c r="G26" t="n">
-        <v>530129.94521257</v>
+        <v>15.14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>45544.65408805</v>
       </c>
       <c r="G27" t="n">
-        <v>484585.29112452</v>
+        <v>15.24</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>19130.34591194</v>
       </c>
       <c r="G28" t="n">
-        <v>465454.94521258</v>
+        <v>15.34</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>286566.87180001</v>
       </c>
       <c r="G29" t="n">
-        <v>752021.81701259</v>
+        <v>15.54</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>208043.3808</v>
       </c>
       <c r="G30" t="n">
-        <v>752021.81701259</v>
+        <v>15.66</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>57282.73309999</v>
       </c>
       <c r="G31" t="n">
-        <v>752021.81701259</v>
+        <v>15.72</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>33200</v>
       </c>
       <c r="G32" t="n">
-        <v>718821.81701259</v>
+        <v>15.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>122122.0313</v>
       </c>
       <c r="G33" t="n">
-        <v>840943.84831259</v>
+        <v>15.72</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>5699.043</v>
       </c>
       <c r="G34" t="n">
-        <v>835244.8053125901</v>
+        <v>15.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>15023.6381</v>
       </c>
       <c r="G35" t="n">
-        <v>850268.4434125901</v>
+        <v>15.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>38989.2763</v>
       </c>
       <c r="G36" t="n">
-        <v>811279.16711259</v>
+        <v>15.32</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>17000</v>
       </c>
       <c r="G37" t="n">
-        <v>811279.16711259</v>
+        <v>15.24</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>95600</v>
       </c>
       <c r="G38" t="n">
-        <v>906879.16711259</v>
+        <v>15.28</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>214847.6249</v>
       </c>
       <c r="G39" t="n">
-        <v>1121726.79201259</v>
+        <v>15.42</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>89573.52559999999</v>
       </c>
       <c r="G40" t="n">
-        <v>1032153.26641259</v>
+        <v>15.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>48812.1205</v>
       </c>
       <c r="G41" t="n">
-        <v>1080965.38691259</v>
+        <v>15.76</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>15657.7236</v>
       </c>
       <c r="G42" t="n">
-        <v>1065307.66331259</v>
+        <v>15.92</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,13 +1929,13 @@
         <v>41544.5549</v>
       </c>
       <c r="G43" t="n">
-        <v>1023763.10841259</v>
+        <v>15.88</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,7 +1965,7 @@
         <v>3647.354</v>
       </c>
       <c r="G44" t="n">
-        <v>1020115.75441259</v>
+        <v>15.76</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,13 +2001,13 @@
         <v>336</v>
       </c>
       <c r="G45" t="n">
-        <v>1019779.75441259</v>
+        <v>15.66</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>50374.1664</v>
       </c>
       <c r="G46" t="n">
-        <v>969405.58801259</v>
+        <v>15.44</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>31600</v>
       </c>
       <c r="G47" t="n">
-        <v>969405.58801259</v>
+        <v>15.32</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>199248.4396</v>
       </c>
       <c r="G48" t="n">
-        <v>770157.1484125899</v>
+        <v>15.24</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,7 +2145,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="n">
-        <v>770157.1484125899</v>
+        <v>15.18</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>492.2605</v>
       </c>
       <c r="G50" t="n">
-        <v>770649.4089125899</v>
+        <v>15.16</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>2784</v>
       </c>
       <c r="G51" t="n">
-        <v>773433.4089125899</v>
+        <v>15.2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2253,7 @@
         <v>31499.1288</v>
       </c>
       <c r="G52" t="n">
-        <v>804932.5377125898</v>
+        <v>15.36</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,13 +2289,13 @@
         <v>48631.3654</v>
       </c>
       <c r="G53" t="n">
-        <v>756301.1723125898</v>
+        <v>15.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,13 +2325,13 @@
         <v>51343.4025</v>
       </c>
       <c r="G54" t="n">
-        <v>807644.5748125898</v>
+        <v>15.58</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,7 +2361,7 @@
         <v>20599.139</v>
       </c>
       <c r="G55" t="n">
-        <v>787045.4358125898</v>
+        <v>15.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,13 +2397,13 @@
         <v>31008.4189</v>
       </c>
       <c r="G56" t="n">
-        <v>818053.8547125899</v>
+        <v>15.62</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,7 +2433,7 @@
         <v>7256.8595</v>
       </c>
       <c r="G57" t="n">
-        <v>818053.8547125899</v>
+        <v>15.52</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,13 +2469,13 @@
         <v>179</v>
       </c>
       <c r="G58" t="n">
-        <v>817874.8547125899</v>
+        <v>15.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,7 +2505,7 @@
         <v>15000</v>
       </c>
       <c r="G59" t="n">
-        <v>817874.8547125899</v>
+        <v>15.34</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,7 +2541,7 @@
         <v>2878.476</v>
       </c>
       <c r="G60" t="n">
-        <v>817874.8547125899</v>
+        <v>15.32</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2513,7 +2577,7 @@
         <v>348668.4772</v>
       </c>
       <c r="G61" t="n">
-        <v>469206.3775125899</v>
+        <v>15.24</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2548,13 +2613,13 @@
         <v>246843.5214</v>
       </c>
       <c r="G62" t="n">
-        <v>469206.3775125899</v>
+        <v>15.16</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2583,7 +2649,7 @@
         <v>17551.647</v>
       </c>
       <c r="G63" t="n">
-        <v>469206.3775125899</v>
+        <v>15.14</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2618,7 +2685,7 @@
         <v>2576.2151</v>
       </c>
       <c r="G64" t="n">
-        <v>471782.5926125898</v>
+        <v>15.14</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,7 +2721,7 @@
         <v>4962.0085</v>
       </c>
       <c r="G65" t="n">
-        <v>471782.5926125898</v>
+        <v>15.14</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,7 +2757,7 @@
         <v>4423.6842</v>
       </c>
       <c r="G66" t="n">
-        <v>471782.5926125898</v>
+        <v>15.16</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,7 +2793,7 @@
         <v>1146.9078</v>
       </c>
       <c r="G67" t="n">
-        <v>471782.5926125898</v>
+        <v>15.18</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,7 +2829,7 @@
         <v>3137.0324</v>
       </c>
       <c r="G68" t="n">
-        <v>471782.5926125898</v>
+        <v>15.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2793,7 +2865,7 @@
         <v>84124.5454</v>
       </c>
       <c r="G69" t="n">
-        <v>387658.0472125898</v>
+        <v>15.14</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2828,7 +2901,7 @@
         <v>108849.735</v>
       </c>
       <c r="G70" t="n">
-        <v>496507.7822125898</v>
+        <v>15.12</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2863,7 +2937,7 @@
         <v>1545</v>
       </c>
       <c r="G71" t="n">
-        <v>494962.7822125898</v>
+        <v>15.06</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2898,7 +2973,7 @@
         <v>2957.822</v>
       </c>
       <c r="G72" t="n">
-        <v>494962.7822125898</v>
+        <v>15</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2933,7 +3009,7 @@
         <v>94846.8233</v>
       </c>
       <c r="G73" t="n">
-        <v>494962.7822125898</v>
+        <v>14.94</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2968,7 +3045,7 @@
         <v>2646</v>
       </c>
       <c r="G74" t="n">
-        <v>494962.7822125898</v>
+        <v>14.94</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3003,7 +3081,7 @@
         <v>4324.7344</v>
       </c>
       <c r="G75" t="n">
-        <v>494962.7822125898</v>
+        <v>14.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3038,7 +3117,7 @@
         <v>3720.0001</v>
       </c>
       <c r="G76" t="n">
-        <v>491242.7821125898</v>
+        <v>14.88</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3073,7 +3153,7 @@
         <v>6341.3141</v>
       </c>
       <c r="G77" t="n">
-        <v>484901.4680125898</v>
+        <v>14.84</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3108,7 +3189,7 @@
         <v>596.556</v>
       </c>
       <c r="G78" t="n">
-        <v>484901.4680125898</v>
+        <v>14.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3143,7 +3225,7 @@
         <v>19573.904</v>
       </c>
       <c r="G79" t="n">
-        <v>484901.4680125898</v>
+        <v>14.76</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3178,7 +3261,7 @@
         <v>3739.055</v>
       </c>
       <c r="G80" t="n">
-        <v>488640.5230125898</v>
+        <v>14.74</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3213,7 +3297,7 @@
         <v>3739.055</v>
       </c>
       <c r="G81" t="n">
-        <v>492379.5780125898</v>
+        <v>14.76</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3248,7 +3333,7 @@
         <v>178.5525</v>
       </c>
       <c r="G82" t="n">
-        <v>492558.1305125898</v>
+        <v>14.82</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3283,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>492568.1305125898</v>
+        <v>14.92</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3318,7 +3405,7 @@
         <v>71831.2873</v>
       </c>
       <c r="G84" t="n">
-        <v>492568.1305125898</v>
+        <v>15.02</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3353,7 +3441,7 @@
         <v>65495.6323</v>
       </c>
       <c r="G85" t="n">
-        <v>558063.7628125898</v>
+        <v>15.12</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3388,7 +3477,7 @@
         <v>5165.1714</v>
       </c>
       <c r="G86" t="n">
-        <v>558063.7628125898</v>
+        <v>15.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3423,7 +3513,7 @@
         <v>3633.984</v>
       </c>
       <c r="G87" t="n">
-        <v>554429.7788125897</v>
+        <v>15.24</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3458,7 +3549,7 @@
         <v>2807.227</v>
       </c>
       <c r="G88" t="n">
-        <v>551622.5518125898</v>
+        <v>15.22</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3493,7 +3585,7 @@
         <v>2030.018</v>
       </c>
       <c r="G89" t="n">
-        <v>551622.5518125898</v>
+        <v>15.19999999999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3528,7 +3621,7 @@
         <v>21456.3907</v>
       </c>
       <c r="G90" t="n">
-        <v>573078.9425125897</v>
+        <v>15.18</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3563,7 +3657,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>573088.9425125897</v>
+        <v>15.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3598,13 +3693,13 @@
         <v>525.7256</v>
       </c>
       <c r="G92" t="n">
-        <v>572563.2169125897</v>
+        <v>15.18</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3633,13 +3729,13 @@
         <v>1360</v>
       </c>
       <c r="G93" t="n">
-        <v>573923.2169125897</v>
+        <v>15.24</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3668,13 +3765,13 @@
         <v>10059.2394</v>
       </c>
       <c r="G94" t="n">
-        <v>563863.9775125898</v>
+        <v>15.26</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3703,13 +3801,13 @@
         <v>20</v>
       </c>
       <c r="G95" t="n">
-        <v>563843.9775125898</v>
+        <v>15.24</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3738,13 +3837,13 @@
         <v>89</v>
       </c>
       <c r="G96" t="n">
-        <v>563843.9775125898</v>
+        <v>15.18</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3773,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>563853.9775125898</v>
+        <v>15.24</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3808,13 +3909,13 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>563843.9775125898</v>
+        <v>15.18</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3843,7 +3945,7 @@
         <v>3098.5064</v>
       </c>
       <c r="G99" t="n">
-        <v>566942.4839125897</v>
+        <v>15.18</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3878,7 +3981,7 @@
         <v>10000</v>
       </c>
       <c r="G100" t="n">
-        <v>576942.4839125897</v>
+        <v>15.24</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3913,7 +4017,7 @@
         <v>17000</v>
       </c>
       <c r="G101" t="n">
-        <v>593942.4839125897</v>
+        <v>15.32</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,6 +4031,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3948,13 +4053,13 @@
         <v>39160.5447</v>
       </c>
       <c r="G102" t="n">
-        <v>593942.4839125897</v>
+        <v>15.34</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3962,6 +4067,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3983,13 +4089,13 @@
         <v>134600</v>
       </c>
       <c r="G103" t="n">
-        <v>593942.4839125897</v>
+        <v>15.42</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -3997,6 +4103,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4018,13 +4125,13 @@
         <v>32800</v>
       </c>
       <c r="G104" t="n">
-        <v>593942.4839125897</v>
+        <v>15.48</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4032,6 +4139,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4053,13 +4161,13 @@
         <v>109386.9548</v>
       </c>
       <c r="G105" t="n">
-        <v>593942.4839125897</v>
+        <v>15.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4067,6 +4175,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4088,13 +4197,13 @@
         <v>10478</v>
       </c>
       <c r="G106" t="n">
-        <v>604420.4839125897</v>
+        <v>15.52</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4102,6 +4211,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4123,13 +4233,13 @@
         <v>44863.7772</v>
       </c>
       <c r="G107" t="n">
-        <v>604420.4839125897</v>
+        <v>15.54</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4137,6 +4247,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4158,13 +4269,13 @@
         <v>21931.3207</v>
       </c>
       <c r="G108" t="n">
-        <v>626351.8046125898</v>
+        <v>15.62</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4172,6 +4283,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4193,7 +4305,7 @@
         <v>31200</v>
       </c>
       <c r="G109" t="n">
-        <v>595151.8046125898</v>
+        <v>15.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,6 +4319,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4228,13 +4341,13 @@
         <v>15860</v>
       </c>
       <c r="G110" t="n">
-        <v>579291.8046125898</v>
+        <v>15.56</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4242,6 +4355,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4263,13 +4377,13 @@
         <v>1996.6</v>
       </c>
       <c r="G111" t="n">
-        <v>579291.8046125898</v>
+        <v>15.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4277,6 +4391,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4298,7 +4413,7 @@
         <v>2672.972</v>
       </c>
       <c r="G112" t="n">
-        <v>579291.8046125898</v>
+        <v>15.44</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,6 +4427,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4333,7 +4449,7 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>579291.8046125898</v>
+        <v>15.32</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,6 +4463,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4368,7 +4485,7 @@
         <v>20256.763</v>
       </c>
       <c r="G114" t="n">
-        <v>579291.8046125898</v>
+        <v>15.29999999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,6 +4499,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4403,7 +4521,7 @@
         <v>50</v>
       </c>
       <c r="G115" t="n">
-        <v>579291.8046125898</v>
+        <v>15.29999999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,6 +4535,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4438,7 +4557,7 @@
         <v>166025.3319</v>
       </c>
       <c r="G116" t="n">
-        <v>413266.4727125898</v>
+        <v>15.25999999999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,6 +4571,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4473,7 +4593,7 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>413276.4727125898</v>
+        <v>15.29999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,6 +4607,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4508,7 +4629,7 @@
         <v>139625.966</v>
       </c>
       <c r="G118" t="n">
-        <v>273650.5067125898</v>
+        <v>15.32</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,6 +4643,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4543,13 +4665,13 @@
         <v>30</v>
       </c>
       <c r="G119" t="n">
-        <v>273620.5067125898</v>
+        <v>15.28</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4557,6 +4679,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4578,7 +4701,7 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>273620.5067125898</v>
+        <v>15.23999999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,6 +4715,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4613,7 +4737,7 @@
         <v>2262.2727</v>
       </c>
       <c r="G121" t="n">
-        <v>273620.5067125898</v>
+        <v>15.23999999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,6 +4751,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4648,7 +4773,7 @@
         <v>36262.2727</v>
       </c>
       <c r="G122" t="n">
-        <v>273620.5067125898</v>
+        <v>15.15999999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,6 +4787,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4683,7 +4809,7 @@
         <v>64400</v>
       </c>
       <c r="G123" t="n">
-        <v>209220.5067125898</v>
+        <v>15.05999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,6 +4823,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4718,7 +4845,7 @@
         <v>40405</v>
       </c>
       <c r="G124" t="n">
-        <v>209220.5067125898</v>
+        <v>15.02</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,6 +4859,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4753,7 +4881,7 @@
         <v>44299.109</v>
       </c>
       <c r="G125" t="n">
-        <v>209220.5067125898</v>
+        <v>14.98</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,6 +4895,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4788,7 +4917,7 @@
         <v>4741</v>
       </c>
       <c r="G126" t="n">
-        <v>213961.5067125898</v>
+        <v>14.98</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
@@ -4806,6 +4935,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4827,7 +4957,7 @@
         <v>4134.7708</v>
       </c>
       <c r="G127" t="n">
-        <v>209826.7359125898</v>
+        <v>14.96</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
@@ -4849,6 +4979,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4870,7 +5001,7 @@
         <v>963.0045</v>
       </c>
       <c r="G128" t="n">
-        <v>208863.7314125898</v>
+        <v>14.96</v>
       </c>
       <c r="H128" t="n">
         <v>1</v>
@@ -4892,6 +5023,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4913,7 +5045,7 @@
         <v>1829.275</v>
       </c>
       <c r="G129" t="n">
-        <v>208863.7314125898</v>
+        <v>14.96</v>
       </c>
       <c r="H129" t="n">
         <v>1</v>
@@ -4935,6 +5067,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4956,7 +5089,7 @@
         <v>117.4591</v>
       </c>
       <c r="G130" t="n">
-        <v>208746.2723125897</v>
+        <v>14.94</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
@@ -4978,6 +5111,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4999,7 +5133,7 @@
         <v>6148.0998</v>
       </c>
       <c r="G131" t="n">
-        <v>208746.2723125897</v>
+        <v>14.88</v>
       </c>
       <c r="H131" t="n">
         <v>1</v>
@@ -5021,6 +5155,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5042,7 +5177,7 @@
         <v>6406.8233</v>
       </c>
       <c r="G132" t="n">
-        <v>208746.2723125897</v>
+        <v>14.84</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5062,6 +5197,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5083,7 +5219,7 @@
         <v>598830.0177</v>
       </c>
       <c r="G133" t="n">
-        <v>-390083.7453874102</v>
+        <v>14.76</v>
       </c>
       <c r="H133" t="n">
         <v>1</v>
@@ -5105,6 +5241,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest GTO.xlsx
+++ b/BackTest/2019-10-26 BackTest GTO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D2" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F2" t="n">
-        <v>126549.4737</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>15.02</v>
+        <v>214722.1642000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="F3" t="n">
-        <v>6480</v>
+        <v>17000</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>197722.1642000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F4" t="n">
-        <v>5552.6227</v>
+        <v>5939.1285</v>
       </c>
       <c r="G4" t="n">
-        <v>15.08</v>
+        <v>203661.2927</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F5" t="n">
-        <v>3025.269</v>
+        <v>22393.3108</v>
       </c>
       <c r="G5" t="n">
-        <v>15.04</v>
+        <v>181267.9819</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="C6" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="D6" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="E6" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F6" t="n">
-        <v>4000</v>
+        <v>10668.7328</v>
       </c>
       <c r="G6" t="n">
-        <v>15.08</v>
+        <v>181267.9819</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +642,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C7" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="D7" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="E7" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F7" t="n">
-        <v>4720</v>
+        <v>3200.6232</v>
       </c>
       <c r="G7" t="n">
-        <v>15.06</v>
+        <v>181267.9819</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +684,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E8" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F8" t="n">
-        <v>25766.7823</v>
+        <v>7173</v>
       </c>
       <c r="G8" t="n">
-        <v>15.06</v>
+        <v>181267.9819</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +726,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C9" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E9" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F9" t="n">
-        <v>69641.8533</v>
+        <v>18478.1263</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>181267.9819</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +768,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="C10" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="D10" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="E10" t="n">
-        <v>14.7</v>
+        <v>14.3</v>
       </c>
       <c r="F10" t="n">
-        <v>31114.6545</v>
+        <v>52291.2447</v>
       </c>
       <c r="G10" t="n">
-        <v>14.94</v>
+        <v>128976.7372</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -765,29 +813,35 @@
         <v>14.8</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="D11" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="E11" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F11" t="n">
-        <v>80751.89230000001</v>
+        <v>6684.0438</v>
       </c>
       <c r="G11" t="n">
-        <v>14.96</v>
+        <v>135660.781</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +852,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C12" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D12" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E12" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>22503.122</v>
       </c>
       <c r="G12" t="n">
-        <v>14.86</v>
+        <v>135660.781</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +894,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C13" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D13" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E13" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F13" t="n">
-        <v>110</v>
+        <v>208852.9535</v>
       </c>
       <c r="G13" t="n">
-        <v>14.78</v>
+        <v>135660.781</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +936,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E14" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F14" t="n">
-        <v>13469.9999</v>
+        <v>87429.8034</v>
       </c>
       <c r="G14" t="n">
-        <v>14.83999999999999</v>
+        <v>135660.781</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +978,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E15" t="n">
         <v>14.8</v>
       </c>
       <c r="F15" t="n">
-        <v>20000</v>
+        <v>1901</v>
       </c>
       <c r="G15" t="n">
-        <v>14.9</v>
+        <v>135660.781</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1020,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F16" t="n">
-        <v>12296.5115</v>
+        <v>10294.9992</v>
       </c>
       <c r="G16" t="n">
-        <v>14.82</v>
+        <v>135660.781</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -990,10 +1074,10 @@
         <v>14.8</v>
       </c>
       <c r="F17" t="n">
-        <v>6062.9972</v>
+        <v>2278.521</v>
       </c>
       <c r="G17" t="n">
-        <v>14.86</v>
+        <v>135660.781</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1087,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1026,10 +1114,10 @@
         <v>14.8</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>36202.4982</v>
       </c>
       <c r="G18" t="n">
-        <v>14.9</v>
+        <v>135660.781</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1127,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1053,19 +1145,19 @@
         <v>14.8</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D19" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E19" t="n">
         <v>14.8</v>
       </c>
       <c r="F19" t="n">
-        <v>90</v>
+        <v>3755.4875</v>
       </c>
       <c r="G19" t="n">
-        <v>14.88</v>
+        <v>135660.781</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1167,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1182,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C20" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D20" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E20" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F20" t="n">
-        <v>13381.03311257</v>
+        <v>35465.0742</v>
       </c>
       <c r="G20" t="n">
-        <v>14.9</v>
+        <v>135660.781</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1207,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1222,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D21" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F21" t="n">
-        <v>2807.012</v>
+        <v>850.3401</v>
       </c>
       <c r="G21" t="n">
-        <v>14.92</v>
+        <v>134810.4409</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1264,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F22" t="n">
-        <v>997.5</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>14.96</v>
+        <v>134910.4409</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D23" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E23" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>293.624</v>
       </c>
       <c r="G23" t="n">
-        <v>14.98</v>
+        <v>135204.0649000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1331,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1346,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C24" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D24" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E24" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F24" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>14.98</v>
+        <v>135214.0649000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1371,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1386,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C25" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="D25" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="E25" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F25" t="n">
-        <v>57255</v>
+        <v>93.39</v>
       </c>
       <c r="G25" t="n">
-        <v>15.02</v>
+        <v>135120.6749</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1411,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1426,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C26" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="E26" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F26" t="n">
-        <v>156996.4992</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>15.14</v>
+        <v>135130.6749</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,7 +1451,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1466,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C27" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="D27" t="n">
-        <v>16</v>
+        <v>15.1</v>
       </c>
       <c r="E27" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F27" t="n">
-        <v>45544.65408805</v>
+        <v>417.4337</v>
       </c>
       <c r="G27" t="n">
-        <v>15.24</v>
+        <v>134713.2412</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1491,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1506,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.9</v>
+        <v>14.6</v>
       </c>
       <c r="C28" t="n">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>14.6</v>
       </c>
       <c r="E28" t="n">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
       <c r="F28" t="n">
-        <v>19130.34591194</v>
+        <v>762.7743</v>
       </c>
       <c r="G28" t="n">
-        <v>15.34</v>
+        <v>133950.4669000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1531,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1546,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="C29" t="n">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="E29" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="F29" t="n">
-        <v>286566.87180001</v>
+        <v>80643.7046</v>
       </c>
       <c r="G29" t="n">
-        <v>15.54</v>
+        <v>214594.1715000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1571,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1586,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>15.2</v>
       </c>
       <c r="C30" t="n">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="E30" t="n">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>208043.3808</v>
+        <v>9142.968199999999</v>
       </c>
       <c r="G30" t="n">
-        <v>15.66</v>
+        <v>205451.2033000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1611,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1626,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="D31" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="E31" t="n">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>57282.73309999</v>
+        <v>126549.4737</v>
       </c>
       <c r="G31" t="n">
-        <v>15.72</v>
+        <v>332000.677</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1651,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1666,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="D32" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="E32" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>33200</v>
+        <v>6480</v>
       </c>
       <c r="G32" t="n">
-        <v>15.7</v>
+        <v>325520.677</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1691,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1706,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>122122.0313</v>
+        <v>5552.6227</v>
       </c>
       <c r="G33" t="n">
-        <v>15.72</v>
+        <v>325520.677</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1579,7 +1731,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1746,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="F34" t="n">
-        <v>5699.043</v>
+        <v>3025.269</v>
       </c>
       <c r="G34" t="n">
-        <v>15.6</v>
+        <v>325520.677</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,7 +1771,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1786,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C35" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D35" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E35" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F35" t="n">
-        <v>15023.6381</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="n">
-        <v>15.5</v>
+        <v>329520.677</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1811,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1826,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D36" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E36" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F36" t="n">
-        <v>38989.2763</v>
+        <v>4720</v>
       </c>
       <c r="G36" t="n">
-        <v>15.32</v>
+        <v>324800.677</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1687,7 +1851,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1707,13 +1875,13 @@
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F37" t="n">
-        <v>17000</v>
+        <v>25766.7823</v>
       </c>
       <c r="G37" t="n">
-        <v>15.24</v>
+        <v>299033.8947</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,7 +1891,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1906,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>15.7</v>
+        <v>14.7</v>
       </c>
       <c r="D38" t="n">
-        <v>15.7</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F38" t="n">
-        <v>95600</v>
+        <v>69641.8533</v>
       </c>
       <c r="G38" t="n">
-        <v>15.28</v>
+        <v>229392.0414</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1759,7 +1931,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1946,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16.2</v>
+        <v>14.8</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>14.7</v>
       </c>
       <c r="D39" t="n">
-        <v>16.4</v>
+        <v>14.8</v>
       </c>
       <c r="E39" t="n">
-        <v>15.9</v>
+        <v>14.7</v>
       </c>
       <c r="F39" t="n">
-        <v>214847.6249</v>
+        <v>31114.6545</v>
       </c>
       <c r="G39" t="n">
-        <v>15.42</v>
+        <v>229392.0414</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,7 +1971,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1986,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16.3</v>
+        <v>14.8</v>
       </c>
       <c r="C40" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="D40" t="n">
-        <v>16.3</v>
+        <v>15.3</v>
       </c>
       <c r="E40" t="n">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="F40" t="n">
-        <v>89573.52559999999</v>
+        <v>80751.89230000001</v>
       </c>
       <c r="G40" t="n">
-        <v>15.5</v>
+        <v>310143.9337</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +2026,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.9</v>
+        <v>14.6</v>
       </c>
       <c r="C41" t="n">
-        <v>16.3</v>
+        <v>14.6</v>
       </c>
       <c r="D41" t="n">
-        <v>16.3</v>
+        <v>14.6</v>
       </c>
       <c r="E41" t="n">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="F41" t="n">
-        <v>48812.1205</v>
+        <v>19</v>
       </c>
       <c r="G41" t="n">
-        <v>15.76</v>
+        <v>310124.9337</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2066,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="C42" t="n">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="D42" t="n">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="E42" t="n">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="F42" t="n">
-        <v>15657.7236</v>
+        <v>110</v>
       </c>
       <c r="G42" t="n">
-        <v>15.92</v>
+        <v>310124.9337</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2106,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="C43" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>15.9</v>
+        <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
       <c r="F43" t="n">
-        <v>41544.5549</v>
+        <v>13469.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>15.88</v>
+        <v>323594.9336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2146,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="C44" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="F44" t="n">
-        <v>3647.354</v>
+        <v>20000</v>
       </c>
       <c r="G44" t="n">
-        <v>15.76</v>
+        <v>323594.9336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2171,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2186,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="C45" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="D45" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E45" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="F45" t="n">
-        <v>336</v>
+        <v>12296.5115</v>
       </c>
       <c r="G45" t="n">
-        <v>15.66</v>
+        <v>311298.4221</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2226,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="C46" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D46" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="E46" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F46" t="n">
-        <v>50374.1664</v>
+        <v>6062.9972</v>
       </c>
       <c r="G46" t="n">
-        <v>15.44</v>
+        <v>305235.4249</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2251,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2266,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C47" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D47" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E47" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F47" t="n">
-        <v>31600</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>15.32</v>
+        <v>305235.4249</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,7 +2291,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2306,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C48" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D48" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E48" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F48" t="n">
-        <v>199248.4396</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
-        <v>15.24</v>
+        <v>305325.4249</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2119,7 +2331,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,7 +2346,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C49" t="n">
         <v>15.1</v>
@@ -2139,13 +2355,13 @@
         <v>15.1</v>
       </c>
       <c r="E49" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F49" t="n">
-        <v>38</v>
+        <v>13381.03311257</v>
       </c>
       <c r="G49" t="n">
-        <v>15.18</v>
+        <v>318706.45801257</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2155,7 +2371,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2169,19 +2389,19 @@
         <v>15.1</v>
       </c>
       <c r="C50" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E50" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>492.2605</v>
+        <v>2807.012</v>
       </c>
       <c r="G50" t="n">
-        <v>15.16</v>
+        <v>315899.44601257</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2191,7 +2411,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2426,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>2784</v>
+        <v>997.5</v>
       </c>
       <c r="G51" t="n">
-        <v>15.2</v>
+        <v>315899.44601257</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2227,7 +2451,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2466,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>14.9</v>
       </c>
       <c r="D52" t="n">
-        <v>16</v>
+        <v>14.9</v>
       </c>
       <c r="E52" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F52" t="n">
-        <v>31499.1288</v>
+        <v>21</v>
       </c>
       <c r="G52" t="n">
-        <v>15.36</v>
+        <v>315878.44601257</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2263,7 +2491,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2506,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>14.9</v>
       </c>
       <c r="C53" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>14.9</v>
       </c>
       <c r="E53" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F53" t="n">
-        <v>48631.3654</v>
+        <v>88</v>
       </c>
       <c r="G53" t="n">
-        <v>15.4</v>
+        <v>315878.44601257</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2546,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.9</v>
+        <v>14.9</v>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>15.3</v>
       </c>
       <c r="E54" t="n">
-        <v>15.9</v>
+        <v>14.9</v>
       </c>
       <c r="F54" t="n">
-        <v>51343.4025</v>
+        <v>57255</v>
       </c>
       <c r="G54" t="n">
-        <v>15.58</v>
+        <v>373133.44601257</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2586,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="C55" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D55" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E55" t="n">
         <v>15.3</v>
       </c>
       <c r="F55" t="n">
-        <v>20599.139</v>
+        <v>156996.4992</v>
       </c>
       <c r="G55" t="n">
-        <v>15.6</v>
+        <v>530129.94521257</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2626,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="C56" t="n">
         <v>15.5</v>
       </c>
       <c r="D56" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="F56" t="n">
-        <v>31008.4189</v>
+        <v>45544.65408805</v>
       </c>
       <c r="G56" t="n">
-        <v>15.62</v>
+        <v>484585.29112452</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2666,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="C57" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D57" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F57" t="n">
-        <v>7256.8595</v>
+        <v>19130.34591194</v>
       </c>
       <c r="G57" t="n">
-        <v>15.52</v>
+        <v>465454.94521258</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2706,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="C58" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="D58" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="E58" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="F58" t="n">
-        <v>179</v>
+        <v>286566.87180001</v>
       </c>
       <c r="G58" t="n">
-        <v>15.5</v>
+        <v>752021.81701259</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2746,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="D59" t="n">
-        <v>15.2</v>
+        <v>16.3</v>
       </c>
       <c r="E59" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="F59" t="n">
-        <v>15000</v>
+        <v>208043.3808</v>
       </c>
       <c r="G59" t="n">
-        <v>15.34</v>
+        <v>752021.81701259</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2515,7 +2771,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2786,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="C60" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="D60" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="E60" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="F60" t="n">
-        <v>2878.476</v>
+        <v>57282.73309999</v>
       </c>
       <c r="G60" t="n">
-        <v>15.32</v>
+        <v>752021.81701259</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2551,7 +2811,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2826,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="C61" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="D61" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="E61" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="F61" t="n">
-        <v>348668.4772</v>
+        <v>33200</v>
       </c>
       <c r="G61" t="n">
-        <v>15.24</v>
+        <v>718821.81701259</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2587,7 +2851,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,32 +2866,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C62" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="D62" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="E62" t="n">
         <v>14.9</v>
       </c>
       <c r="F62" t="n">
-        <v>246843.5214</v>
+        <v>122122.0313</v>
       </c>
       <c r="G62" t="n">
-        <v>15.16</v>
+        <v>840943.84831259</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2906,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="C63" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D63" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="F63" t="n">
-        <v>17551.647</v>
+        <v>5699.043</v>
       </c>
       <c r="G63" t="n">
-        <v>15.14</v>
+        <v>835244.8053125901</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2931,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2946,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C64" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D64" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E64" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F64" t="n">
-        <v>2576.2151</v>
+        <v>15023.6381</v>
       </c>
       <c r="G64" t="n">
-        <v>15.14</v>
+        <v>850268.4434125901</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2695,7 +2971,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2709,19 +2989,19 @@
         <v>15.2</v>
       </c>
       <c r="C65" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
         <v>15.2</v>
       </c>
       <c r="E65" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F65" t="n">
-        <v>4962.0085</v>
+        <v>38989.2763</v>
       </c>
       <c r="G65" t="n">
-        <v>15.14</v>
+        <v>811279.16711259</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,7 +3011,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +3026,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F66" t="n">
-        <v>4423.6842</v>
+        <v>17000</v>
       </c>
       <c r="G66" t="n">
-        <v>15.16</v>
+        <v>811279.16711259</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +3051,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2781,19 +3069,19 @@
         <v>15.2</v>
       </c>
       <c r="C67" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="D67" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="E67" t="n">
         <v>15.2</v>
       </c>
       <c r="F67" t="n">
-        <v>1146.9078</v>
+        <v>95600</v>
       </c>
       <c r="G67" t="n">
-        <v>15.18</v>
+        <v>906879.16711259</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,7 +3091,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3106,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.2</v>
+        <v>16.2</v>
       </c>
       <c r="C68" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="D68" t="n">
-        <v>15.2</v>
+        <v>16.4</v>
       </c>
       <c r="E68" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="F68" t="n">
-        <v>3137.0324</v>
+        <v>214847.6249</v>
       </c>
       <c r="G68" t="n">
-        <v>15.2</v>
+        <v>1121726.79201259</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2839,7 +3131,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,35 +3146,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.1</v>
+        <v>16.3</v>
       </c>
       <c r="C69" t="n">
-        <v>14.9</v>
+        <v>15.8</v>
       </c>
       <c r="D69" t="n">
-        <v>15.1</v>
+        <v>16.3</v>
       </c>
       <c r="E69" t="n">
-        <v>14.9</v>
+        <v>15.8</v>
       </c>
       <c r="F69" t="n">
-        <v>84124.5454</v>
+        <v>89573.52559999999</v>
       </c>
       <c r="G69" t="n">
-        <v>15.14</v>
+        <v>1032153.26641259</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2886,28 +3184,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="C70" t="n">
-        <v>15.1</v>
+        <v>16.3</v>
       </c>
       <c r="D70" t="n">
-        <v>15.1</v>
+        <v>16.3</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>15.8</v>
       </c>
       <c r="F70" t="n">
-        <v>108849.735</v>
+        <v>48812.1205</v>
       </c>
       <c r="G70" t="n">
-        <v>15.12</v>
+        <v>1080965.38691259</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2922,28 +3220,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.9</v>
+        <v>15.8</v>
       </c>
       <c r="C71" t="n">
-        <v>14.9</v>
+        <v>15.8</v>
       </c>
       <c r="D71" t="n">
-        <v>14.9</v>
+        <v>15.8</v>
       </c>
       <c r="E71" t="n">
-        <v>14.9</v>
+        <v>15.8</v>
       </c>
       <c r="F71" t="n">
-        <v>1545</v>
+        <v>15657.7236</v>
       </c>
       <c r="G71" t="n">
-        <v>15.06</v>
+        <v>1065307.66331259</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2958,22 +3256,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.9</v>
+        <v>15.8</v>
       </c>
       <c r="C72" t="n">
-        <v>14.9</v>
+        <v>15.5</v>
       </c>
       <c r="D72" t="n">
-        <v>14.9</v>
+        <v>15.9</v>
       </c>
       <c r="E72" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="F72" t="n">
-        <v>2957.822</v>
+        <v>41544.5549</v>
       </c>
       <c r="G72" t="n">
-        <v>15</v>
+        <v>1023763.10841259</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3292,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="C73" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="D73" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="E73" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="F73" t="n">
-        <v>94846.8233</v>
+        <v>3647.354</v>
       </c>
       <c r="G73" t="n">
-        <v>14.94</v>
+        <v>1020115.75441259</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3328,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="C74" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="D74" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="E74" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="F74" t="n">
-        <v>2646</v>
+        <v>336</v>
       </c>
       <c r="G74" t="n">
-        <v>14.94</v>
+        <v>1019779.75441259</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3364,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="C75" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D75" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="E75" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F75" t="n">
-        <v>4324.7344</v>
+        <v>50374.1664</v>
       </c>
       <c r="G75" t="n">
-        <v>14.9</v>
+        <v>969405.58801259</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3400,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C76" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="D76" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E76" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="F76" t="n">
-        <v>3720.0001</v>
+        <v>31600</v>
       </c>
       <c r="G76" t="n">
-        <v>14.88</v>
+        <v>969405.58801259</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3436,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="C77" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D77" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="E77" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F77" t="n">
-        <v>6341.3141</v>
+        <v>199248.4396</v>
       </c>
       <c r="G77" t="n">
-        <v>14.84</v>
+        <v>770157.1484125899</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3472,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C78" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D78" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E78" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F78" t="n">
-        <v>596.556</v>
+        <v>38</v>
       </c>
       <c r="G78" t="n">
-        <v>14.8</v>
+        <v>770157.1484125899</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3508,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C79" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="D79" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="E79" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F79" t="n">
-        <v>19573.904</v>
+        <v>492.2605</v>
       </c>
       <c r="G79" t="n">
-        <v>14.76</v>
+        <v>770649.4089125899</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3544,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="C80" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="D80" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="E80" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="F80" t="n">
-        <v>3739.055</v>
+        <v>2784</v>
       </c>
       <c r="G80" t="n">
-        <v>14.74</v>
+        <v>773433.4089125899</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3580,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14.9</v>
+        <v>15.5</v>
       </c>
       <c r="C81" t="n">
-        <v>14.9</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
-        <v>14.9</v>
+        <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F81" t="n">
-        <v>3739.055</v>
+        <v>31499.1288</v>
       </c>
       <c r="G81" t="n">
-        <v>14.76</v>
+        <v>804932.5377125898</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3616,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="D82" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F82" t="n">
-        <v>178.5525</v>
+        <v>48631.3654</v>
       </c>
       <c r="G82" t="n">
-        <v>14.82</v>
+        <v>756301.1723125898</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3652,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="C83" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="D83" t="n">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>51343.4025</v>
       </c>
       <c r="G83" t="n">
-        <v>14.92</v>
+        <v>807644.5748125898</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3688,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="C84" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D84" t="n">
-        <v>15.2</v>
+        <v>15.9</v>
       </c>
       <c r="E84" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F84" t="n">
-        <v>71831.2873</v>
+        <v>20599.139</v>
       </c>
       <c r="G84" t="n">
-        <v>15.02</v>
+        <v>787045.4358125898</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3724,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="C85" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D85" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="E85" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F85" t="n">
-        <v>65495.6323</v>
+        <v>31008.4189</v>
       </c>
       <c r="G85" t="n">
-        <v>15.12</v>
+        <v>818053.8547125899</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3760,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="C86" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D86" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E86" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F86" t="n">
-        <v>5165.1714</v>
+        <v>7256.8595</v>
       </c>
       <c r="G86" t="n">
-        <v>15.2</v>
+        <v>818053.8547125899</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3510,10 +3808,10 @@
         <v>15.2</v>
       </c>
       <c r="F87" t="n">
-        <v>3633.984</v>
+        <v>179</v>
       </c>
       <c r="G87" t="n">
-        <v>15.24</v>
+        <v>817874.8547125899</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3832,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C88" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D88" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E88" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F88" t="n">
-        <v>2807.227</v>
+        <v>15000</v>
       </c>
       <c r="G88" t="n">
-        <v>15.22</v>
+        <v>817874.8547125899</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3868,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C89" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D89" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E89" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F89" t="n">
-        <v>2030.018</v>
+        <v>2878.476</v>
       </c>
       <c r="G89" t="n">
-        <v>15.19999999999999</v>
+        <v>817874.8547125899</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3904,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C90" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D90" t="n">
         <v>15.2</v>
       </c>
       <c r="E90" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F90" t="n">
-        <v>21456.3907</v>
+        <v>348668.4772</v>
       </c>
       <c r="G90" t="n">
-        <v>15.18</v>
+        <v>469206.3775125899</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3940,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="C91" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D91" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E91" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>246843.5214</v>
       </c>
       <c r="G91" t="n">
-        <v>15.2</v>
+        <v>469206.3775125899</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,7 +3976,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C92" t="n">
         <v>15.1</v>
@@ -3687,19 +3985,19 @@
         <v>15.1</v>
       </c>
       <c r="E92" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F92" t="n">
-        <v>525.7256</v>
+        <v>17551.647</v>
       </c>
       <c r="G92" t="n">
-        <v>15.18</v>
+        <v>469206.3775125899</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,28 +4012,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C93" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D93" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E93" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F93" t="n">
-        <v>1360</v>
+        <v>2576.2151</v>
       </c>
       <c r="G93" t="n">
-        <v>15.24</v>
+        <v>471782.5926125898</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3762,16 +4060,16 @@
         <v>15.2</v>
       </c>
       <c r="F94" t="n">
-        <v>10059.2394</v>
+        <v>4962.0085</v>
       </c>
       <c r="G94" t="n">
-        <v>15.26</v>
+        <v>471782.5926125898</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3786,28 +4084,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C95" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D95" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E95" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>4423.6842</v>
       </c>
       <c r="G95" t="n">
-        <v>15.24</v>
+        <v>471782.5926125898</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3822,28 +4120,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C96" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D96" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E96" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F96" t="n">
-        <v>89</v>
+        <v>1146.9078</v>
       </c>
       <c r="G96" t="n">
-        <v>15.18</v>
+        <v>471782.5926125898</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3858,22 +4156,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C97" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D97" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E97" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>3137.0324</v>
       </c>
       <c r="G97" t="n">
-        <v>15.24</v>
+        <v>471782.5926125898</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3897,25 +4195,25 @@
         <v>15.1</v>
       </c>
       <c r="C98" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D98" t="n">
         <v>15.1</v>
       </c>
       <c r="E98" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>84124.5454</v>
       </c>
       <c r="G98" t="n">
-        <v>15.18</v>
+        <v>387658.0472125898</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3930,22 +4228,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="C99" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D99" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E99" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F99" t="n">
-        <v>3098.5064</v>
+        <v>108849.735</v>
       </c>
       <c r="G99" t="n">
-        <v>15.18</v>
+        <v>496507.7822125898</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +4264,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="C100" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="D100" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="E100" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="F100" t="n">
-        <v>10000</v>
+        <v>1545</v>
       </c>
       <c r="G100" t="n">
-        <v>15.24</v>
+        <v>494962.7822125898</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4300,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="C101" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="D101" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="E101" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="F101" t="n">
-        <v>17000</v>
+        <v>2957.822</v>
       </c>
       <c r="G101" t="n">
-        <v>15.32</v>
+        <v>494962.7822125898</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,28 +4336,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="C102" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="D102" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="E102" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="F102" t="n">
-        <v>39160.5447</v>
+        <v>94846.8233</v>
       </c>
       <c r="G102" t="n">
-        <v>15.34</v>
+        <v>494962.7822125898</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4074,28 +4372,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="C103" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="D103" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="E103" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="F103" t="n">
-        <v>134600</v>
+        <v>2646</v>
       </c>
       <c r="G103" t="n">
-        <v>15.42</v>
+        <v>494962.7822125898</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4110,28 +4408,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="C104" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="D104" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="E104" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="F104" t="n">
-        <v>32800</v>
+        <v>4324.7344</v>
       </c>
       <c r="G104" t="n">
-        <v>15.48</v>
+        <v>494962.7822125898</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4146,28 +4444,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="C105" t="n">
-        <v>15.5</v>
+        <v>14.8</v>
       </c>
       <c r="D105" t="n">
-        <v>15.5</v>
+        <v>14.9</v>
       </c>
       <c r="E105" t="n">
-        <v>15.5</v>
+        <v>14.8</v>
       </c>
       <c r="F105" t="n">
-        <v>109386.9548</v>
+        <v>3720.0001</v>
       </c>
       <c r="G105" t="n">
-        <v>15.5</v>
+        <v>491242.7821125898</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4182,28 +4480,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="C106" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="D106" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="E106" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="F106" t="n">
-        <v>10478</v>
+        <v>6341.3141</v>
       </c>
       <c r="G106" t="n">
-        <v>15.52</v>
+        <v>484901.4680125898</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4218,28 +4516,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="C107" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="D107" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="E107" t="n">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="F107" t="n">
-        <v>44863.7772</v>
+        <v>596.556</v>
       </c>
       <c r="G107" t="n">
-        <v>15.54</v>
+        <v>484901.4680125898</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4254,28 +4552,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.9</v>
+        <v>14.7</v>
       </c>
       <c r="C108" t="n">
-        <v>15.9</v>
+        <v>14.7</v>
       </c>
       <c r="D108" t="n">
-        <v>15.9</v>
+        <v>14.7</v>
       </c>
       <c r="E108" t="n">
-        <v>15.9</v>
+        <v>14.7</v>
       </c>
       <c r="F108" t="n">
-        <v>21931.3207</v>
+        <v>19573.904</v>
       </c>
       <c r="G108" t="n">
-        <v>15.62</v>
+        <v>484901.4680125898</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4290,28 +4588,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="C109" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="D109" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="E109" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="F109" t="n">
-        <v>31200</v>
+        <v>3739.055</v>
       </c>
       <c r="G109" t="n">
-        <v>15.6</v>
+        <v>488640.5230125898</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4326,28 +4624,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="C110" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="D110" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E110" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="F110" t="n">
-        <v>15860</v>
+        <v>3739.055</v>
       </c>
       <c r="G110" t="n">
-        <v>15.56</v>
+        <v>492379.5780125898</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4362,28 +4660,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="C111" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="E111" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="F111" t="n">
-        <v>1996.6</v>
+        <v>178.5525</v>
       </c>
       <c r="G111" t="n">
-        <v>15.5</v>
+        <v>492558.1305125898</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4398,22 +4696,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C112" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D112" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E112" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F112" t="n">
-        <v>2672.972</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>15.44</v>
+        <v>492568.1305125898</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4732,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C113" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D113" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E113" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>71831.2873</v>
       </c>
       <c r="G113" t="n">
-        <v>15.32</v>
+        <v>492568.1305125898</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4482,10 +4780,10 @@
         <v>15.3</v>
       </c>
       <c r="F114" t="n">
-        <v>20256.763</v>
+        <v>65495.6323</v>
       </c>
       <c r="G114" t="n">
-        <v>15.29999999999999</v>
+        <v>558063.7628125898</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4518,10 +4816,10 @@
         <v>15.3</v>
       </c>
       <c r="F115" t="n">
-        <v>50</v>
+        <v>5165.1714</v>
       </c>
       <c r="G115" t="n">
-        <v>15.29999999999999</v>
+        <v>558063.7628125898</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4840,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C116" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D116" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E116" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F116" t="n">
-        <v>166025.3319</v>
+        <v>3633.984</v>
       </c>
       <c r="G116" t="n">
-        <v>15.25999999999999</v>
+        <v>554429.7788125897</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4876,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="C117" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="D117" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="E117" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>2807.227</v>
       </c>
       <c r="G117" t="n">
-        <v>15.29999999999999</v>
+        <v>551622.5518125898</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4912,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="C118" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D118" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="E118" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="F118" t="n">
-        <v>139625.966</v>
+        <v>2030.018</v>
       </c>
       <c r="G118" t="n">
-        <v>15.32</v>
+        <v>551622.5518125898</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4653,25 +4951,25 @@
         <v>15.1</v>
       </c>
       <c r="C119" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D119" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E119" t="n">
         <v>15.1</v>
       </c>
       <c r="F119" t="n">
-        <v>30</v>
+        <v>21456.3907</v>
       </c>
       <c r="G119" t="n">
-        <v>15.28</v>
+        <v>573078.9425125897</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4686,22 +4984,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C120" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="D120" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E120" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F120" t="n">
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>15.23999999999999</v>
+        <v>573088.9425125897</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4734,10 +5032,10 @@
         <v>15.1</v>
       </c>
       <c r="F121" t="n">
-        <v>2262.2727</v>
+        <v>525.7256</v>
       </c>
       <c r="G121" t="n">
-        <v>15.23999999999999</v>
+        <v>572563.2169125897</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +5056,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C122" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="D122" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E122" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F122" t="n">
-        <v>36262.2727</v>
+        <v>1360</v>
       </c>
       <c r="G122" t="n">
-        <v>15.15999999999999</v>
+        <v>573923.2169125897</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +5092,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C123" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D123" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E123" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F123" t="n">
-        <v>64400</v>
+        <v>10059.2394</v>
       </c>
       <c r="G123" t="n">
-        <v>15.05999999999999</v>
+        <v>563863.9775125898</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +5128,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="C124" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D124" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E124" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="F124" t="n">
-        <v>40405</v>
+        <v>20</v>
       </c>
       <c r="G124" t="n">
-        <v>15.02</v>
+        <v>563843.9775125898</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +5164,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="C125" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D125" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E125" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="F125" t="n">
-        <v>44299.109</v>
+        <v>89</v>
       </c>
       <c r="G125" t="n">
-        <v>14.98</v>
+        <v>563843.9775125898</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,35 +5200,31 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="C126" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="D126" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E126" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="F126" t="n">
-        <v>4741</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>14.98</v>
+        <v>563853.9775125898</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K126" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
@@ -4945,37 +5239,29 @@
         <v>15.1</v>
       </c>
       <c r="C127" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D127" t="n">
         <v>15.1</v>
       </c>
       <c r="E127" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F127" t="n">
-        <v>4134.7708</v>
+        <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>14.96</v>
+        <v>563843.9775125898</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="K127" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4986,40 +5272,32 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="C128" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D128" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="E128" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F128" t="n">
-        <v>963.0045</v>
+        <v>3098.5064</v>
       </c>
       <c r="G128" t="n">
-        <v>14.96</v>
+        <v>566942.4839125897</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>15</v>
-      </c>
-      <c r="K128" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5030,40 +5308,32 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="C129" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="D129" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="E129" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="F129" t="n">
-        <v>1829.275</v>
+        <v>10000</v>
       </c>
       <c r="G129" t="n">
-        <v>14.96</v>
+        <v>576942.4839125897</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K129" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5074,40 +5344,32 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="C130" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="D130" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="E130" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="F130" t="n">
-        <v>117.4591</v>
+        <v>17000</v>
       </c>
       <c r="G130" t="n">
-        <v>14.94</v>
+        <v>593942.4839125897</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K130" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5118,40 +5380,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="C131" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="D131" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="E131" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="F131" t="n">
-        <v>6148.0998</v>
+        <v>39160.5447</v>
       </c>
       <c r="G131" t="n">
-        <v>14.88</v>
+        <v>593942.4839125897</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K131" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5162,22 +5416,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="C132" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="D132" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="E132" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="F132" t="n">
-        <v>6406.8233</v>
+        <v>134600</v>
       </c>
       <c r="G132" t="n">
-        <v>14.84</v>
+        <v>593942.4839125897</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5186,14 +5440,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5204,44 +5452,1080 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>32800</v>
+      </c>
+      <c r="G133" t="n">
+        <v>593942.4839125897</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>109386.9548</v>
+      </c>
+      <c r="G134" t="n">
+        <v>593942.4839125897</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C135" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10478</v>
+      </c>
+      <c r="G135" t="n">
+        <v>604420.4839125897</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>44863.7772</v>
+      </c>
+      <c r="G136" t="n">
+        <v>604420.4839125897</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F137" t="n">
+        <v>21931.3207</v>
+      </c>
+      <c r="G137" t="n">
+        <v>626351.8046125898</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D138" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E138" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>31200</v>
+      </c>
+      <c r="G138" t="n">
+        <v>595151.8046125898</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>15860</v>
+      </c>
+      <c r="G139" t="n">
+        <v>579291.8046125898</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D140" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1996.6</v>
+      </c>
+      <c r="G140" t="n">
+        <v>579291.8046125898</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2672.972</v>
+      </c>
+      <c r="G141" t="n">
+        <v>579291.8046125898</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100</v>
+      </c>
+      <c r="G142" t="n">
+        <v>579291.8046125898</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20256.763</v>
+      </c>
+      <c r="G143" t="n">
+        <v>579291.8046125898</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>50</v>
+      </c>
+      <c r="G144" t="n">
+        <v>579291.8046125898</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>166025.3319</v>
+      </c>
+      <c r="G145" t="n">
+        <v>413266.4727125898</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>413276.4727125898</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="F147" t="n">
+        <v>139625.966</v>
+      </c>
+      <c r="G147" t="n">
+        <v>273650.5067125898</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>30</v>
+      </c>
+      <c r="G148" t="n">
+        <v>273620.5067125898</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10</v>
+      </c>
+      <c r="G149" t="n">
+        <v>273620.5067125898</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2262.2727</v>
+      </c>
+      <c r="G150" t="n">
+        <v>273620.5067125898</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>36262.2727</v>
+      </c>
+      <c r="G151" t="n">
+        <v>273620.5067125898</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>64400</v>
+      </c>
+      <c r="G152" t="n">
+        <v>209220.5067125898</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C153" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D153" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E153" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>40405</v>
+      </c>
+      <c r="G153" t="n">
+        <v>209220.5067125898</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D154" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>44299.109</v>
+      </c>
+      <c r="G154" t="n">
+        <v>209220.5067125898</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4741</v>
+      </c>
+      <c r="G155" t="n">
+        <v>213961.5067125898</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4134.7708</v>
+      </c>
+      <c r="G156" t="n">
+        <v>209826.7359125898</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>15</v>
+      </c>
+      <c r="C157" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15</v>
+      </c>
+      <c r="E157" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>963.0045</v>
+      </c>
+      <c r="G157" t="n">
+        <v>208863.7314125898</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1829.275</v>
+      </c>
+      <c r="G158" t="n">
+        <v>208863.7314125898</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>117.4591</v>
+      </c>
+      <c r="G159" t="n">
+        <v>208746.2723125897</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6148.0998</v>
+      </c>
+      <c r="G160" t="n">
+        <v>208746.2723125897</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6406.8233</v>
+      </c>
+      <c r="G161" t="n">
+        <v>208746.2723125897</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
         <v>14.7</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C162" t="n">
         <v>14.5</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D162" t="n">
         <v>14.7</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E162" t="n">
         <v>14.5</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F162" t="n">
         <v>598830.0177</v>
       </c>
-      <c r="G133" t="n">
-        <v>14.76</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K133" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>-390083.7453874102</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest GTO.xlsx
+++ b/BackTest/2019-10-26 BackTest GTO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>214722.1642000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>197722.1642000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>14.7</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>203661.2927</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>14.5</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>181267.9819</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>14.7</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>181267.9819</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>14.6</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>181267.9819</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>14.6</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,21 @@
         <v>181267.9819</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>14.6</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +718,21 @@
         <v>181267.9819</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
         <v>14.6</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +757,21 @@
         <v>128976.7372</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>14.6</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +796,21 @@
         <v>135660.781</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
         <v>14.3</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +835,21 @@
         <v>135660.781</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +874,21 @@
         <v>135660.781</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +913,21 @@
         <v>135660.781</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +952,21 @@
         <v>135660.781</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,24 +991,21 @@
         <v>135660.781</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,22 +1030,21 @@
         <v>135660.781</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1120,22 +1069,21 @@
         <v>135660.781</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1160,22 +1108,21 @@
         <v>135660.781</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1200,22 +1147,21 @@
         <v>135660.781</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1240,24 +1186,21 @@
         <v>134810.4409</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1282,24 +1225,21 @@
         <v>134910.4409</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
         <v>14.7</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1324,22 +1264,21 @@
         <v>135204.0649000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1364,22 +1303,21 @@
         <v>135214.0649000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1404,22 +1342,21 @@
         <v>135120.6749</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1444,22 +1381,21 @@
         <v>135130.6749</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1486,20 +1422,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1526,20 +1459,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1566,20 +1496,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1606,20 +1533,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1646,20 +1570,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1686,20 +1607,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1724,22 +1642,21 @@
         <v>325520.677</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1764,22 +1681,21 @@
         <v>325520.677</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1806,20 +1722,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1846,20 +1759,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1886,20 +1796,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1926,20 +1833,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1966,20 +1870,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2006,20 +1907,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2046,20 +1944,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2086,20 +1981,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2126,20 +2018,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2166,20 +2055,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2206,20 +2092,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2246,20 +2129,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2286,20 +2166,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2326,20 +2203,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2364,22 +2238,21 @@
         <v>318706.45801257</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2406,20 +2279,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2446,20 +2316,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2486,20 +2353,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2526,20 +2390,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2566,20 +2427,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2606,20 +2464,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2646,20 +2501,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2686,20 +2538,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2726,20 +2575,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2766,20 +2612,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2804,22 +2647,17 @@
         <v>752021.81701259</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2844,22 +2682,15 @@
         <v>718821.81701259</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2886,20 +2717,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2926,20 +2750,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2966,20 +2783,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3006,20 +2816,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3046,20 +2849,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3086,20 +2882,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3126,20 +2915,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3166,18 +2948,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L69" t="n">
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3204,16 +2981,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3238,18 +3012,15 @@
         <v>1065307.66331259</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3276,16 +3047,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3310,18 +3078,15 @@
         <v>1020115.75441259</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3348,16 +3113,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3384,16 +3146,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3420,16 +3179,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3456,16 +3212,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3492,16 +3245,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3528,16 +3278,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3564,16 +3311,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3598,18 +3342,15 @@
         <v>804932.5377125898</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3634,18 +3375,15 @@
         <v>756301.1723125898</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3672,16 +3410,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3708,16 +3443,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3744,16 +3476,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3778,18 +3507,15 @@
         <v>818053.8547125899</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3816,16 +3542,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3852,16 +3575,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3888,16 +3608,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3922,18 +3639,15 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3958,18 +3672,15 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3996,16 +3707,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4030,18 +3738,15 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4066,18 +3771,15 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4102,18 +3804,15 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4140,16 +3839,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4176,16 +3872,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4210,18 +3903,15 @@
         <v>387658.0472125898</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4248,16 +3938,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4284,16 +3971,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4320,16 +4004,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4354,18 +4035,15 @@
         <v>494962.7822125898</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4390,18 +4068,15 @@
         <v>494962.7822125898</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4428,16 +4103,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4462,18 +4134,15 @@
         <v>491242.7821125898</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4500,16 +4169,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4536,16 +4202,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4572,16 +4235,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4608,16 +4268,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4644,16 +4301,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4680,16 +4334,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4716,16 +4367,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4752,16 +4400,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4788,16 +4433,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4822,18 +4464,15 @@
         <v>558063.7628125898</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4858,18 +4497,15 @@
         <v>554429.7788125897</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4894,18 +4530,15 @@
         <v>551622.5518125898</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4930,18 +4563,15 @@
         <v>551622.5518125898</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4968,16 +4598,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5002,18 +4629,15 @@
         <v>573088.9425125897</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5040,16 +4664,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5076,16 +4697,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5112,16 +4730,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5148,16 +4763,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5184,16 +4796,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5220,16 +4829,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5256,16 +4862,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5292,16 +4895,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5328,16 +4928,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5364,16 +4961,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5400,16 +4994,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5436,16 +5027,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5470,18 +5058,15 @@
         <v>593942.4839125897</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5506,18 +5091,15 @@
         <v>593942.4839125897</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5542,18 +5124,15 @@
         <v>604420.4839125897</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5578,18 +5157,15 @@
         <v>604420.4839125897</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5614,18 +5190,15 @@
         <v>626351.8046125898</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5650,18 +5223,15 @@
         <v>595151.8046125898</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5686,18 +5256,15 @@
         <v>579291.8046125898</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5722,18 +5289,15 @@
         <v>579291.8046125898</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5760,16 +5324,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5796,16 +5357,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5832,16 +5390,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5868,16 +5423,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5904,16 +5456,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5940,16 +5489,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5976,16 +5522,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6012,16 +5555,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6048,16 +5588,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6084,16 +5621,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6120,16 +5654,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6156,16 +5687,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6192,16 +5720,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6228,16 +5753,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6264,16 +5786,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6300,16 +5819,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6336,16 +5852,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6372,16 +5885,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6408,16 +5918,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6444,16 +5951,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6480,16 +5984,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6516,18 +6017,15 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest GTO.xlsx
+++ b/BackTest/2019-10-26 BackTest GTO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>214722.1642000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>197722.1642000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>14.7</v>
@@ -523,7 +523,7 @@
         <v>203661.2927</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>14.5</v>
@@ -562,7 +562,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>14.7</v>
@@ -601,7 +601,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>14.6</v>
@@ -640,7 +640,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>14.6</v>
@@ -679,7 +679,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>14.6</v>
@@ -718,7 +718,7 @@
         <v>181267.9819</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>14.6</v>
@@ -757,7 +757,7 @@
         <v>128976.7372</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>14.6</v>
@@ -796,7 +796,7 @@
         <v>135660.781</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>14.3</v>
@@ -835,7 +835,7 @@
         <v>135660.781</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>14.8</v>
@@ -874,7 +874,7 @@
         <v>135660.781</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>14.8</v>
@@ -913,7 +913,7 @@
         <v>135660.781</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>14.8</v>
@@ -952,7 +952,7 @@
         <v>135660.781</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>14.8</v>
@@ -991,7 +991,7 @@
         <v>135660.781</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>14.8</v>
@@ -1030,7 +1030,7 @@
         <v>135660.781</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>14.8</v>
@@ -1069,7 +1069,7 @@
         <v>135660.781</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>14.8</v>
@@ -1108,7 +1108,7 @@
         <v>135660.781</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>14.8</v>
@@ -1147,7 +1147,7 @@
         <v>135660.781</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>14.8</v>
@@ -1186,7 +1186,7 @@
         <v>134810.4409</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>14.8</v>
@@ -1225,7 +1225,7 @@
         <v>134910.4409</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>14.7</v>
@@ -1264,7 +1264,7 @@
         <v>135204.0649000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>14.9</v>
@@ -1303,7 +1303,7 @@
         <v>135214.0649000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>15.1</v>
@@ -1342,11 +1342,9 @@
         <v>135120.6749</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>15.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1381,11 +1379,9 @@
         <v>135130.6749</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1642,11 +1638,9 @@
         <v>325520.677</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1681,11 +1675,9 @@
         <v>325520.677</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1905,9 +1897,11 @@
         <v>310143.9337</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1942,9 +1936,11 @@
         <v>310124.9337</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15.3</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1979,9 +1975,11 @@
         <v>310124.9337</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2238,11 +2236,9 @@
         <v>318706.45801257</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2647,16 +2643,18 @@
         <v>752021.81701259</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
       <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -2682,11 +2680,15 @@
         <v>718821.81701259</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2719,7 +2721,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2752,7 +2758,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2785,7 +2795,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2818,7 +2832,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2851,7 +2869,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2884,7 +2906,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2917,7 +2943,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2950,7 +2980,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2983,7 +3017,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3012,11 +3050,15 @@
         <v>1065307.66331259</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3049,7 +3091,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3078,11 +3124,15 @@
         <v>1020115.75441259</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3115,7 +3165,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3148,7 +3202,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3181,7 +3239,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3214,7 +3276,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3247,7 +3313,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3280,7 +3350,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3313,7 +3387,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3342,11 +3420,15 @@
         <v>804932.5377125898</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3375,11 +3457,15 @@
         <v>756301.1723125898</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3412,7 +3498,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3445,7 +3535,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3478,7 +3572,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3605,15 @@
         <v>818053.8547125899</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3544,7 +3646,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3573,14 +3679,16 @@
         <v>817874.8547125899</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3606,7 +3714,7 @@
         <v>817874.8547125899</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3639,7 +3747,7 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3672,7 +3780,7 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3705,7 +3813,7 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3738,7 +3846,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3771,7 +3879,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3804,7 +3912,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3837,7 +3945,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3870,7 +3978,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3903,7 +4011,7 @@
         <v>387658.0472125898</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3969,7 +4077,7 @@
         <v>494962.7822125898</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4035,7 +4143,7 @@
         <v>494962.7822125898</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4068,7 +4176,7 @@
         <v>494962.7822125898</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4101,7 +4209,7 @@
         <v>494962.7822125898</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4134,7 +4242,7 @@
         <v>491242.7821125898</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4167,7 +4275,7 @@
         <v>484901.4680125898</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4200,7 +4308,7 @@
         <v>484901.4680125898</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4233,7 +4341,7 @@
         <v>484901.4680125898</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4266,7 +4374,7 @@
         <v>488640.5230125898</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4299,7 +4407,7 @@
         <v>492379.5780125898</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4332,7 +4440,7 @@
         <v>492558.1305125898</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4464,7 +4572,7 @@
         <v>558063.7628125898</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4497,7 +4605,7 @@
         <v>554429.7788125897</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4530,7 +4638,7 @@
         <v>551622.5518125898</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4563,7 +4671,7 @@
         <v>551622.5518125898</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4596,7 +4704,7 @@
         <v>573078.9425125897</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4629,7 +4737,7 @@
         <v>573088.9425125897</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5058,7 +5166,7 @@
         <v>593942.4839125897</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5091,7 +5199,7 @@
         <v>593942.4839125897</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5124,7 +5232,7 @@
         <v>604420.4839125897</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5157,7 +5265,7 @@
         <v>604420.4839125897</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5190,7 +5298,7 @@
         <v>626351.8046125898</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5223,7 +5331,7 @@
         <v>595151.8046125898</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5256,7 +5364,7 @@
         <v>579291.8046125898</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5289,7 +5397,7 @@
         <v>579291.8046125898</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6026,6 +6134,6 @@
       <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest GTO.xlsx
+++ b/BackTest/2019-10-26 BackTest GTO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>214722.1642000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>197722.1642000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>203661.2927</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>181267.9819</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>181267.9819</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>181267.9819</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>181267.9819</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>181267.9819</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -762,12 +720,10 @@
       <c r="I10" t="n">
         <v>14.6</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,10 +757,12 @@
       <c r="I11" t="n">
         <v>14.3</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -835,15 +793,15 @@
         <v>135660.781</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -874,17 +832,11 @@
         <v>135660.781</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +865,11 @@
         <v>135660.781</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +898,11 @@
         <v>135660.781</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +931,11 @@
         <v>135660.781</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +964,11 @@
         <v>135660.781</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +997,11 @@
         <v>135660.781</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1030,11 @@
         <v>135660.781</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1063,11 @@
         <v>135660.781</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1096,11 @@
         <v>134810.4409</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1129,11 @@
         <v>134910.4409</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1162,11 @@
         <v>135204.0649000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1195,11 @@
         <v>135214.0649000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1346,11 +1232,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1383,11 +1265,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,11 +1298,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1457,11 +1331,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1494,11 +1364,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1531,11 +1397,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1568,11 +1430,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1605,11 +1463,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1642,11 +1496,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1679,11 +1529,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1716,11 +1562,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1753,11 +1595,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1790,11 +1628,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +1661,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1864,11 +1694,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1897,17 +1723,11 @@
         <v>310143.9337</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1936,17 +1756,11 @@
         <v>310124.9337</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1975,17 +1789,11 @@
         <v>310124.9337</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +1826,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2055,11 +1859,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2092,11 +1892,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2129,11 +1925,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2166,11 +1958,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2203,11 +1991,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2240,11 +2024,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2277,11 +2057,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2314,11 +2090,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2351,11 +2123,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2388,11 +2156,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2425,11 +2189,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2462,11 +2222,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2499,11 +2255,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2536,11 +2288,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2573,11 +2321,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2610,11 +2354,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2647,11 +2387,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2684,11 +2420,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2721,11 +2453,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2758,11 +2486,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2795,11 +2519,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2832,11 +2552,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2869,11 +2585,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2906,11 +2618,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2943,11 +2651,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2980,11 +2684,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3017,11 +2717,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3054,11 +2750,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +2783,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3128,11 +2816,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3165,11 +2849,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3202,11 +2882,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3239,11 +2915,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3276,11 +2948,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3313,11 +2981,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3350,11 +3014,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3387,11 +3047,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3424,11 +3080,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3461,11 +3113,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3498,11 +3146,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3535,11 +3179,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3572,11 +3212,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3609,11 +3245,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3646,11 +3278,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3679,16 +3307,14 @@
         <v>817874.8547125899</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
       <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -3714,7 +3340,7 @@
         <v>817874.8547125899</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3747,7 +3373,7 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3813,7 +3439,7 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4044,7 +3670,7 @@
         <v>496507.7822125898</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4077,7 +3703,7 @@
         <v>494962.7822125898</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4143,7 +3769,7 @@
         <v>494962.7822125898</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4176,7 +3802,7 @@
         <v>494962.7822125898</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4209,7 +3835,7 @@
         <v>494962.7822125898</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4242,7 +3868,7 @@
         <v>491242.7821125898</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4275,7 +3901,7 @@
         <v>484901.4680125898</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4308,7 +3934,7 @@
         <v>484901.4680125898</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4341,7 +3967,7 @@
         <v>484901.4680125898</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4374,7 +4000,7 @@
         <v>488640.5230125898</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4407,7 +4033,7 @@
         <v>492379.5780125898</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4440,7 +4066,7 @@
         <v>492558.1305125898</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4704,7 +4330,7 @@
         <v>573078.9425125897</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4737,7 +4363,7 @@
         <v>573088.9425125897</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -6134,6 +5760,6 @@
       <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest GTO.xlsx
+++ b/BackTest/2019-10-26 BackTest GTO.xlsx
@@ -451,7 +451,7 @@
         <v>214722.1642000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>197722.1642000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>203661.2927</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>181267.9819</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>181267.9819</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>181267.9819</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>181267.9819</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>181267.9819</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -720,10 +762,12 @@
       <c r="I10" t="n">
         <v>14.6</v>
       </c>
-      <c r="J10" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -757,12 +801,10 @@
       <c r="I11" t="n">
         <v>14.3</v>
       </c>
-      <c r="J11" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -796,12 +838,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -836,7 +876,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -869,7 +913,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -902,7 +950,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -935,7 +987,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -968,7 +1024,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1001,7 +1061,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1034,7 +1098,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1067,7 +1135,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1100,7 +1172,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1133,7 +1209,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1166,7 +1246,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1199,7 +1283,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1232,7 +1320,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1265,7 +1357,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1298,7 +1394,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1331,7 +1431,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1364,7 +1468,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1397,7 +1505,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1430,7 +1542,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1463,7 +1579,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1496,7 +1616,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1529,7 +1653,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1562,7 +1690,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1595,7 +1727,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1628,7 +1764,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1661,7 +1801,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1694,7 +1838,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1727,7 +1875,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1760,7 +1912,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1793,7 +1949,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1826,7 +1986,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1859,7 +2023,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1892,7 +2060,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1925,7 +2097,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1958,7 +2134,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1991,7 +2171,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2024,7 +2208,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2057,7 +2245,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2090,7 +2282,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2123,7 +2319,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2156,7 +2356,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2189,7 +2393,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2222,7 +2430,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2255,7 +2467,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2288,7 +2504,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2321,7 +2541,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2354,7 +2578,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2387,7 +2615,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2420,7 +2652,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2453,7 +2689,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2486,7 +2726,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2519,7 +2763,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2552,7 +2800,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2585,7 +2837,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2618,7 +2874,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2651,7 +2911,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2680,14 +2944,16 @@
         <v>1032153.26641259</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2713,7 +2979,7 @@
         <v>1080965.38691259</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +3012,7 @@
         <v>1065307.66331259</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +3045,7 @@
         <v>1023763.10841259</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3109,7 +3375,7 @@
         <v>756301.1723125898</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3142,7 +3408,7 @@
         <v>807644.5748125898</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3175,7 +3441,7 @@
         <v>787045.4358125898</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3208,7 +3474,7 @@
         <v>818053.8547125899</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3241,7 +3507,7 @@
         <v>818053.8547125899</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3340,7 +3606,7 @@
         <v>817874.8547125899</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3373,7 +3639,7 @@
         <v>469206.3775125899</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3472,7 +3738,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3505,7 +3771,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3538,7 +3804,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3571,7 +3837,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3604,7 +3870,7 @@
         <v>471782.5926125898</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3637,7 +3903,7 @@
         <v>387658.0472125898</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3670,7 +3936,7 @@
         <v>496507.7822125898</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4924,7 +5190,7 @@
         <v>626351.8046125898</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4957,7 +5223,7 @@
         <v>595151.8046125898</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4990,7 +5256,7 @@
         <v>579291.8046125898</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5287,7 +5553,7 @@
         <v>273620.5067125898</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest GTO.xlsx
+++ b/BackTest/2019-10-26 BackTest GTO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>214722.1642000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>17000</v>
       </c>
       <c r="G3" t="n">
-        <v>197722.1642000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>14.7</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>5939.1285</v>
       </c>
       <c r="G4" t="n">
-        <v>203661.2927</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>14.5</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>22393.3108</v>
       </c>
       <c r="G5" t="n">
-        <v>181267.9819</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>14.7</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +581,21 @@
         <v>10668.7328</v>
       </c>
       <c r="G6" t="n">
-        <v>181267.9819</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>14.6</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +617,21 @@
         <v>3200.6232</v>
       </c>
       <c r="G7" t="n">
-        <v>181267.9819</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
         <v>14.6</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +653,21 @@
         <v>7173</v>
       </c>
       <c r="G8" t="n">
-        <v>181267.9819</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
         <v>14.6</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +689,21 @@
         <v>18478.1263</v>
       </c>
       <c r="G9" t="n">
-        <v>181267.9819</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
         <v>14.6</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +725,21 @@
         <v>52291.2447</v>
       </c>
       <c r="G10" t="n">
-        <v>128976.7372</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
         <v>14.6</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +761,21 @@
         <v>6684.0438</v>
       </c>
       <c r="G11" t="n">
-        <v>135660.781</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
         <v>14.3</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,22 +797,21 @@
         <v>22503.122</v>
       </c>
       <c r="G12" t="n">
-        <v>135660.781</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -869,22 +833,19 @@
         <v>208852.9535</v>
       </c>
       <c r="G13" t="n">
-        <v>135660.781</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -906,22 +867,19 @@
         <v>87429.8034</v>
       </c>
       <c r="G14" t="n">
-        <v>135660.781</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -943,22 +901,21 @@
         <v>1901</v>
       </c>
       <c r="G15" t="n">
-        <v>135660.781</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -980,22 +937,21 @@
         <v>10294.9992</v>
       </c>
       <c r="G16" t="n">
-        <v>135660.781</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1017,22 +973,19 @@
         <v>2278.521</v>
       </c>
       <c r="G17" t="n">
-        <v>135660.781</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,22 +1007,21 @@
         <v>36202.4982</v>
       </c>
       <c r="G18" t="n">
-        <v>135660.781</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1091,22 +1043,19 @@
         <v>3755.4875</v>
       </c>
       <c r="G19" t="n">
-        <v>135660.781</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1128,22 +1077,21 @@
         <v>35465.0742</v>
       </c>
       <c r="G20" t="n">
-        <v>135660.781</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1165,22 +1113,21 @@
         <v>850.3401</v>
       </c>
       <c r="G21" t="n">
-        <v>134810.4409</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1202,22 +1149,21 @@
         <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>134910.4409</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1239,22 +1185,21 @@
         <v>293.624</v>
       </c>
       <c r="G23" t="n">
-        <v>135204.0649000001</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1276,22 +1221,21 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>135214.0649000001</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>15.1</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1313,22 +1257,19 @@
         <v>93.39</v>
       </c>
       <c r="G25" t="n">
-        <v>135120.6749</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1350,22 +1291,21 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>135130.6749</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1387,22 +1327,19 @@
         <v>417.4337</v>
       </c>
       <c r="G27" t="n">
-        <v>134713.2412</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1424,22 +1361,19 @@
         <v>762.7743</v>
       </c>
       <c r="G28" t="n">
-        <v>133950.4669000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1461,22 +1395,19 @@
         <v>80643.7046</v>
       </c>
       <c r="G29" t="n">
-        <v>214594.1715000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1498,22 +1429,19 @@
         <v>9142.968199999999</v>
       </c>
       <c r="G30" t="n">
-        <v>205451.2033000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1535,22 +1463,19 @@
         <v>126549.4737</v>
       </c>
       <c r="G31" t="n">
-        <v>332000.677</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1572,22 +1497,19 @@
         <v>6480</v>
       </c>
       <c r="G32" t="n">
-        <v>325520.677</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1609,22 +1531,19 @@
         <v>5552.6227</v>
       </c>
       <c r="G33" t="n">
-        <v>325520.677</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1646,22 +1565,19 @@
         <v>3025.269</v>
       </c>
       <c r="G34" t="n">
-        <v>325520.677</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1683,22 +1599,19 @@
         <v>4000</v>
       </c>
       <c r="G35" t="n">
-        <v>329520.677</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1720,22 +1633,19 @@
         <v>4720</v>
       </c>
       <c r="G36" t="n">
-        <v>324800.677</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1757,22 +1667,19 @@
         <v>25766.7823</v>
       </c>
       <c r="G37" t="n">
-        <v>299033.8947</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1794,22 +1701,19 @@
         <v>69641.8533</v>
       </c>
       <c r="G38" t="n">
-        <v>229392.0414</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1831,22 +1735,19 @@
         <v>31114.6545</v>
       </c>
       <c r="G39" t="n">
-        <v>229392.0414</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1868,22 +1769,19 @@
         <v>80751.89230000001</v>
       </c>
       <c r="G40" t="n">
-        <v>310143.9337</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1905,22 +1803,19 @@
         <v>19</v>
       </c>
       <c r="G41" t="n">
-        <v>310124.9337</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1942,22 +1837,19 @@
         <v>110</v>
       </c>
       <c r="G42" t="n">
-        <v>310124.9337</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1979,22 +1871,19 @@
         <v>13469.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>323594.9336</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2016,22 +1905,19 @@
         <v>20000</v>
       </c>
       <c r="G44" t="n">
-        <v>323594.9336</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2053,22 +1939,19 @@
         <v>12296.5115</v>
       </c>
       <c r="G45" t="n">
-        <v>311298.4221</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2090,22 +1973,19 @@
         <v>6062.9972</v>
       </c>
       <c r="G46" t="n">
-        <v>305235.4249</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2127,22 +2007,19 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>305235.4249</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2164,22 +2041,19 @@
         <v>90</v>
       </c>
       <c r="G48" t="n">
-        <v>305325.4249</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2201,22 +2075,19 @@
         <v>13381.03311257</v>
       </c>
       <c r="G49" t="n">
-        <v>318706.45801257</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2238,22 +2109,19 @@
         <v>2807.012</v>
       </c>
       <c r="G50" t="n">
-        <v>315899.44601257</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2275,22 +2143,19 @@
         <v>997.5</v>
       </c>
       <c r="G51" t="n">
-        <v>315899.44601257</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2312,22 +2177,19 @@
         <v>21</v>
       </c>
       <c r="G52" t="n">
-        <v>315878.44601257</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2349,22 +2211,19 @@
         <v>88</v>
       </c>
       <c r="G53" t="n">
-        <v>315878.44601257</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2386,22 +2245,19 @@
         <v>57255</v>
       </c>
       <c r="G54" t="n">
-        <v>373133.44601257</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2423,22 +2279,19 @@
         <v>156996.4992</v>
       </c>
       <c r="G55" t="n">
-        <v>530129.94521257</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2460,22 +2313,19 @@
         <v>45544.65408805</v>
       </c>
       <c r="G56" t="n">
-        <v>484585.29112452</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2497,22 +2347,19 @@
         <v>19130.34591194</v>
       </c>
       <c r="G57" t="n">
-        <v>465454.94521258</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2534,22 +2381,19 @@
         <v>286566.87180001</v>
       </c>
       <c r="G58" t="n">
-        <v>752021.81701259</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2571,22 +2415,19 @@
         <v>208043.3808</v>
       </c>
       <c r="G59" t="n">
-        <v>752021.81701259</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2608,22 +2449,19 @@
         <v>57282.73309999</v>
       </c>
       <c r="G60" t="n">
-        <v>752021.81701259</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2645,22 +2483,19 @@
         <v>33200</v>
       </c>
       <c r="G61" t="n">
-        <v>718821.81701259</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2682,22 +2517,19 @@
         <v>122122.0313</v>
       </c>
       <c r="G62" t="n">
-        <v>840943.84831259</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2719,22 +2551,19 @@
         <v>5699.043</v>
       </c>
       <c r="G63" t="n">
-        <v>835244.8053125901</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2756,22 +2585,19 @@
         <v>15023.6381</v>
       </c>
       <c r="G64" t="n">
-        <v>850268.4434125901</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2793,22 +2619,19 @@
         <v>38989.2763</v>
       </c>
       <c r="G65" t="n">
-        <v>811279.16711259</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2830,22 +2653,19 @@
         <v>17000</v>
       </c>
       <c r="G66" t="n">
-        <v>811279.16711259</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2867,22 +2687,19 @@
         <v>95600</v>
       </c>
       <c r="G67" t="n">
-        <v>906879.16711259</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2904,22 +2721,19 @@
         <v>214847.6249</v>
       </c>
       <c r="G68" t="n">
-        <v>1121726.79201259</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2941,20 +2755,19 @@
         <v>89573.52559999999</v>
       </c>
       <c r="G69" t="n">
-        <v>1032153.26641259</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
       </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2976,18 +2789,19 @@
         <v>48812.1205</v>
       </c>
       <c r="G70" t="n">
-        <v>1080965.38691259</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3009,18 +2823,17 @@
         <v>15657.7236</v>
       </c>
       <c r="G71" t="n">
-        <v>1065307.66331259</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3042,18 +2855,15 @@
         <v>41544.5549</v>
       </c>
       <c r="G72" t="n">
-        <v>1023763.10841259</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3075,18 +2885,15 @@
         <v>3647.354</v>
       </c>
       <c r="G73" t="n">
-        <v>1020115.75441259</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3108,18 +2915,15 @@
         <v>336</v>
       </c>
       <c r="G74" t="n">
-        <v>1019779.75441259</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3141,18 +2945,15 @@
         <v>50374.1664</v>
       </c>
       <c r="G75" t="n">
-        <v>969405.58801259</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3174,18 +2975,15 @@
         <v>31600</v>
       </c>
       <c r="G76" t="n">
-        <v>969405.58801259</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3207,18 +3005,15 @@
         <v>199248.4396</v>
       </c>
       <c r="G77" t="n">
-        <v>770157.1484125899</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3240,18 +3035,15 @@
         <v>38</v>
       </c>
       <c r="G78" t="n">
-        <v>770157.1484125899</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3273,18 +3065,15 @@
         <v>492.2605</v>
       </c>
       <c r="G79" t="n">
-        <v>770649.4089125899</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3306,18 +3095,15 @@
         <v>2784</v>
       </c>
       <c r="G80" t="n">
-        <v>773433.4089125899</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3339,18 +3125,15 @@
         <v>31499.1288</v>
       </c>
       <c r="G81" t="n">
-        <v>804932.5377125898</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3372,18 +3155,15 @@
         <v>48631.3654</v>
       </c>
       <c r="G82" t="n">
-        <v>756301.1723125898</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3405,18 +3185,15 @@
         <v>51343.4025</v>
       </c>
       <c r="G83" t="n">
-        <v>807644.5748125898</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3438,18 +3215,15 @@
         <v>20599.139</v>
       </c>
       <c r="G84" t="n">
-        <v>787045.4358125898</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3471,18 +3245,15 @@
         <v>31008.4189</v>
       </c>
       <c r="G85" t="n">
-        <v>818053.8547125899</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3504,18 +3275,15 @@
         <v>7256.8595</v>
       </c>
       <c r="G86" t="n">
-        <v>818053.8547125899</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3537,18 +3305,15 @@
         <v>179</v>
       </c>
       <c r="G87" t="n">
-        <v>817874.8547125899</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,18 +3335,15 @@
         <v>15000</v>
       </c>
       <c r="G88" t="n">
-        <v>817874.8547125899</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3603,18 +3365,15 @@
         <v>2878.476</v>
       </c>
       <c r="G89" t="n">
-        <v>817874.8547125899</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3636,18 +3395,15 @@
         <v>348668.4772</v>
       </c>
       <c r="G90" t="n">
-        <v>469206.3775125899</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3669,18 +3425,15 @@
         <v>246843.5214</v>
       </c>
       <c r="G91" t="n">
-        <v>469206.3775125899</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3702,18 +3455,15 @@
         <v>17551.647</v>
       </c>
       <c r="G92" t="n">
-        <v>469206.3775125899</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3735,18 +3485,15 @@
         <v>2576.2151</v>
       </c>
       <c r="G93" t="n">
-        <v>471782.5926125898</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3515,15 @@
         <v>4962.0085</v>
       </c>
       <c r="G94" t="n">
-        <v>471782.5926125898</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3801,18 +3545,15 @@
         <v>4423.6842</v>
       </c>
       <c r="G95" t="n">
-        <v>471782.5926125898</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3834,18 +3575,15 @@
         <v>1146.9078</v>
       </c>
       <c r="G96" t="n">
-        <v>471782.5926125898</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3867,18 +3605,15 @@
         <v>3137.0324</v>
       </c>
       <c r="G97" t="n">
-        <v>471782.5926125898</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3900,18 +3635,15 @@
         <v>84124.5454</v>
       </c>
       <c r="G98" t="n">
-        <v>387658.0472125898</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3933,18 +3665,15 @@
         <v>108849.735</v>
       </c>
       <c r="G99" t="n">
-        <v>496507.7822125898</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3966,18 +3695,15 @@
         <v>1545</v>
       </c>
       <c r="G100" t="n">
-        <v>494962.7822125898</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3999,18 +3725,15 @@
         <v>2957.822</v>
       </c>
       <c r="G101" t="n">
-        <v>494962.7822125898</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4032,18 +3755,15 @@
         <v>94846.8233</v>
       </c>
       <c r="G102" t="n">
-        <v>494962.7822125898</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4065,18 +3785,15 @@
         <v>2646</v>
       </c>
       <c r="G103" t="n">
-        <v>494962.7822125898</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4098,18 +3815,15 @@
         <v>4324.7344</v>
       </c>
       <c r="G104" t="n">
-        <v>494962.7822125898</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4131,18 +3845,15 @@
         <v>3720.0001</v>
       </c>
       <c r="G105" t="n">
-        <v>491242.7821125898</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4164,18 +3875,15 @@
         <v>6341.3141</v>
       </c>
       <c r="G106" t="n">
-        <v>484901.4680125898</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4197,18 +3905,15 @@
         <v>596.556</v>
       </c>
       <c r="G107" t="n">
-        <v>484901.4680125898</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4230,18 +3935,15 @@
         <v>19573.904</v>
       </c>
       <c r="G108" t="n">
-        <v>484901.4680125898</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4263,18 +3965,19 @@
         <v>3739.055</v>
       </c>
       <c r="G109" t="n">
-        <v>488640.5230125898</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="I109" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4296,18 +3999,23 @@
         <v>3739.055</v>
       </c>
       <c r="G110" t="n">
-        <v>492379.5780125898</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="I110" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4329,18 +4037,23 @@
         <v>178.5525</v>
       </c>
       <c r="G111" t="n">
-        <v>492558.1305125898</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>14.9</v>
+      </c>
+      <c r="I111" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4362,18 +4075,15 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>492568.1305125898</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4395,18 +4105,15 @@
         <v>71831.2873</v>
       </c>
       <c r="G113" t="n">
-        <v>492568.1305125898</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4428,18 +4135,15 @@
         <v>65495.6323</v>
       </c>
       <c r="G114" t="n">
-        <v>558063.7628125898</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4461,18 +4165,15 @@
         <v>5165.1714</v>
       </c>
       <c r="G115" t="n">
-        <v>558063.7628125898</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4494,18 +4195,15 @@
         <v>3633.984</v>
       </c>
       <c r="G116" t="n">
-        <v>554429.7788125897</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4527,18 +4225,15 @@
         <v>2807.227</v>
       </c>
       <c r="G117" t="n">
-        <v>551622.5518125898</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4560,18 +4255,15 @@
         <v>2030.018</v>
       </c>
       <c r="G118" t="n">
-        <v>551622.5518125898</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4593,18 +4285,15 @@
         <v>21456.3907</v>
       </c>
       <c r="G119" t="n">
-        <v>573078.9425125897</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4626,18 +4315,19 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>573088.9425125897</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>15.2</v>
+      </c>
+      <c r="I120" t="n">
+        <v>15.2</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4659,18 +4349,23 @@
         <v>525.7256</v>
       </c>
       <c r="G121" t="n">
-        <v>572563.2169125897</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="I121" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4692,18 +4387,23 @@
         <v>1360</v>
       </c>
       <c r="G122" t="n">
-        <v>573923.2169125897</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4725,18 +4425,15 @@
         <v>10059.2394</v>
       </c>
       <c r="G123" t="n">
-        <v>563863.9775125898</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4758,18 +4455,15 @@
         <v>20</v>
       </c>
       <c r="G124" t="n">
-        <v>563843.9775125898</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4791,18 +4485,15 @@
         <v>89</v>
       </c>
       <c r="G125" t="n">
-        <v>563843.9775125898</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4824,18 +4515,15 @@
         <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>563853.9775125898</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4857,18 +4545,15 @@
         <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>563843.9775125898</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4890,18 +4575,15 @@
         <v>3098.5064</v>
       </c>
       <c r="G128" t="n">
-        <v>566942.4839125897</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4923,18 +4605,15 @@
         <v>10000</v>
       </c>
       <c r="G129" t="n">
-        <v>576942.4839125897</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4956,18 +4635,15 @@
         <v>17000</v>
       </c>
       <c r="G130" t="n">
-        <v>593942.4839125897</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4989,18 +4665,15 @@
         <v>39160.5447</v>
       </c>
       <c r="G131" t="n">
-        <v>593942.4839125897</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5022,18 +4695,15 @@
         <v>134600</v>
       </c>
       <c r="G132" t="n">
-        <v>593942.4839125897</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5055,18 +4725,15 @@
         <v>32800</v>
       </c>
       <c r="G133" t="n">
-        <v>593942.4839125897</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5088,18 +4755,15 @@
         <v>109386.9548</v>
       </c>
       <c r="G134" t="n">
-        <v>593942.4839125897</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5121,18 +4785,15 @@
         <v>10478</v>
       </c>
       <c r="G135" t="n">
-        <v>604420.4839125897</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5154,18 +4815,15 @@
         <v>44863.7772</v>
       </c>
       <c r="G136" t="n">
-        <v>604420.4839125897</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5187,18 +4845,15 @@
         <v>21931.3207</v>
       </c>
       <c r="G137" t="n">
-        <v>626351.8046125898</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5220,18 +4875,15 @@
         <v>31200</v>
       </c>
       <c r="G138" t="n">
-        <v>595151.8046125898</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5253,18 +4905,15 @@
         <v>15860</v>
       </c>
       <c r="G139" t="n">
-        <v>579291.8046125898</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5286,18 +4935,15 @@
         <v>1996.6</v>
       </c>
       <c r="G140" t="n">
-        <v>579291.8046125898</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5319,18 +4965,15 @@
         <v>2672.972</v>
       </c>
       <c r="G141" t="n">
-        <v>579291.8046125898</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5352,18 +4995,15 @@
         <v>100</v>
       </c>
       <c r="G142" t="n">
-        <v>579291.8046125898</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5385,18 +5025,15 @@
         <v>20256.763</v>
       </c>
       <c r="G143" t="n">
-        <v>579291.8046125898</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5418,18 +5055,15 @@
         <v>50</v>
       </c>
       <c r="G144" t="n">
-        <v>579291.8046125898</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5451,18 +5085,15 @@
         <v>166025.3319</v>
       </c>
       <c r="G145" t="n">
-        <v>413266.4727125898</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5484,18 +5115,15 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>413276.4727125898</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5517,18 +5145,15 @@
         <v>139625.966</v>
       </c>
       <c r="G147" t="n">
-        <v>273650.5067125898</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5550,18 +5175,15 @@
         <v>30</v>
       </c>
       <c r="G148" t="n">
-        <v>273620.5067125898</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5583,18 +5205,15 @@
         <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>273620.5067125898</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5616,18 +5235,15 @@
         <v>2262.2727</v>
       </c>
       <c r="G150" t="n">
-        <v>273620.5067125898</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5649,18 +5265,15 @@
         <v>36262.2727</v>
       </c>
       <c r="G151" t="n">
-        <v>273620.5067125898</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5682,18 +5295,15 @@
         <v>64400</v>
       </c>
       <c r="G152" t="n">
-        <v>209220.5067125898</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5715,18 +5325,15 @@
         <v>40405</v>
       </c>
       <c r="G153" t="n">
-        <v>209220.5067125898</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5748,18 +5355,15 @@
         <v>44299.109</v>
       </c>
       <c r="G154" t="n">
-        <v>209220.5067125898</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5781,18 +5385,15 @@
         <v>4741</v>
       </c>
       <c r="G155" t="n">
-        <v>213961.5067125898</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5814,18 +5415,15 @@
         <v>4134.7708</v>
       </c>
       <c r="G156" t="n">
-        <v>209826.7359125898</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5847,18 +5445,15 @@
         <v>963.0045</v>
       </c>
       <c r="G157" t="n">
-        <v>208863.7314125898</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5880,18 +5475,15 @@
         <v>1829.275</v>
       </c>
       <c r="G158" t="n">
-        <v>208863.7314125898</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5913,18 +5505,15 @@
         <v>117.4591</v>
       </c>
       <c r="G159" t="n">
-        <v>208746.2723125897</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5946,18 +5535,15 @@
         <v>6148.0998</v>
       </c>
       <c r="G160" t="n">
-        <v>208746.2723125897</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5979,18 +5565,15 @@
         <v>6406.8233</v>
       </c>
       <c r="G161" t="n">
-        <v>208746.2723125897</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6012,18 +5595,15 @@
         <v>598830.0177</v>
       </c>
       <c r="G162" t="n">
-        <v>-390083.7453874102</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
